--- a/data/2017-18-crdc-data/Documentation/2017-18 CRDC File Structure.xlsx
+++ b/data/2017-18-crdc-data/Documentation/2017-18 CRDC File Structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fjohnson\Desktop\2017-18 Public-Use\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\School\DSBA 6156\FinalProject\data\2017-18-crdc-data\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7718DC5A-A9A3-48AC-ABDD-2A06E2C0E21C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653EEF14-DF87-4B12-B96F-62ABCCDC0F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9E41CEF-2DD2-457A-9CE1-7CCEB4A9DF3D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="25" activeTab="31" xr2:uid="{A9E41CEF-2DD2-457A-9CE1-7CCEB4A9DF3D}"/>
   </bookViews>
   <sheets>
     <sheet name="LEA Characteristics" sheetId="2" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <sheet name="Suspensions" sheetId="36" r:id="rId32"/>
     <sheet name="Transfers" sheetId="37" r:id="rId33"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId34"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Data" localSheetId="4">#REF!</definedName>
     <definedName name="Data" localSheetId="5">#REF!</definedName>
@@ -94,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6461" uniqueCount="4047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6452" uniqueCount="4045">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -10353,9 +10350,6 @@
     <t>SCH_GRADE_PS</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
     <t>Amount of Non-Personnel Expenditures Associated with Activities Funded with Federal, State, and Local Funds</t>
   </si>
   <si>
@@ -11794,9 +11788,6 @@
   </si>
   <si>
     <t>District State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field Name </t>
   </si>
   <si>
     <t>Students with disabilities transferred to an alternative school for disciplinary reasons: 504 Only Female</t>
@@ -12354,19 +12345,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12668,7 +12646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D3E0FD-F154-4399-86EA-C2B44688EB62}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -16460,11 +16438,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA832B93-E66B-4911-942B-E98507E044E1}">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18045,11 +18023,6 @@
       </c>
       <c r="C143" t="s">
         <v>1405</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>1404</v>
       </c>
     </row>
   </sheetData>
@@ -21179,11 +21152,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958F3109-B8BB-47DB-8925-547ECB042113}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="A18:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21380,11 +21353,6 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21392,11 +21360,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495F16B2-5594-49C8-A2A6-8AFF4C6C94F9}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21657,16 +21625,6 @@
       </c>
       <c r="C23" t="s">
         <v>2104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>1404</v>
       </c>
     </row>
   </sheetData>
@@ -22039,11 +21997,11 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FE08F9-4283-41B1-879C-4E51731D2D1E}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22512,7 +22470,7 @@
         <v>2261</v>
       </c>
       <c r="C42" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -22523,7 +22481,7 @@
         <v>2260</v>
       </c>
       <c r="C43" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -22986,11 +22944,6 @@
       </c>
       <c r="C85" t="s">
         <v>2176</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>1404</v>
       </c>
     </row>
   </sheetData>
@@ -28654,11 +28607,11 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6C8758-61FA-4EF2-8E68-E379C305B58D}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28772,10 +28725,10 @@
         <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="C10" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -28783,10 +28736,10 @@
         <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="C11" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -28794,10 +28747,10 @@
         <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="C12" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -28805,10 +28758,10 @@
         <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="C13" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -28816,10 +28769,10 @@
         <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="C14" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -28827,10 +28780,10 @@
         <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="C15" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -28838,10 +28791,10 @@
         <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="C16" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -28849,10 +28802,10 @@
         <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="C17" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -28860,10 +28813,10 @@
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="C18" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -28871,10 +28824,10 @@
         <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="C19" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -28882,10 +28835,10 @@
         <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="C20" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -28893,10 +28846,10 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="C21" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -28904,10 +28857,10 @@
         <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="C22" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -28915,10 +28868,10 @@
         <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="C23" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -28926,10 +28879,10 @@
         <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="C24" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -28937,10 +28890,10 @@
         <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="C25" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -28948,10 +28901,10 @@
         <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="C26" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -28959,10 +28912,10 @@
         <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="C27" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -28970,25 +28923,10 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="C28" t="s">
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
         <v>3419</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>1404</v>
       </c>
     </row>
   </sheetData>
@@ -29117,10 +29055,10 @@
         <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="C10" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -29129,10 +29067,10 @@
         <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="C11" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -29141,10 +29079,10 @@
         <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="C12" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -29153,10 +29091,10 @@
         <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="C13" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -29165,10 +29103,10 @@
         <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="C14" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -29177,10 +29115,10 @@
         <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="C15" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -29189,10 +29127,10 @@
         <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="C16" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -29201,10 +29139,10 @@
         <v>114</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="C17" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -29213,10 +29151,10 @@
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="C18" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -29225,10 +29163,10 @@
         <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="C19" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -29237,10 +29175,10 @@
         <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="C20" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -29249,10 +29187,10 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="C21" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -29261,10 +29199,10 @@
         <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="C22" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -29273,10 +29211,10 @@
         <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="C23" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -29641,11 +29579,11 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F20459-A5B4-4821-8353-838319A2CAB9}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29759,10 +29697,10 @@
         <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="C10" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -29770,10 +29708,10 @@
         <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="C11" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -29781,10 +29719,10 @@
         <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="C12" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -29792,10 +29730,10 @@
         <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="C13" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -29803,10 +29741,10 @@
         <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="C14" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -29814,10 +29752,10 @@
         <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="C15" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -29825,10 +29763,10 @@
         <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="C16" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -29836,10 +29774,10 @@
         <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="C17" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -29847,10 +29785,10 @@
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="C18" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -29858,15 +29796,10 @@
         <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C19" t="s">
-        <v>3486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>1404</v>
+        <v>3485</v>
       </c>
     </row>
   </sheetData>
@@ -29995,10 +29928,10 @@
         <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="C10" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -30006,10 +29939,10 @@
         <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -30017,10 +29950,10 @@
         <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -30028,10 +29961,10 @@
         <v>126</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -30039,10 +29972,10 @@
         <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="C14" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -30050,10 +29983,10 @@
         <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="C15" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -30061,10 +29994,10 @@
         <v>117</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -30072,10 +30005,10 @@
         <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="C17" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -30083,10 +30016,10 @@
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="C18" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -30094,10 +30027,10 @@
         <v>108</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -30105,10 +30038,10 @@
         <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="C20" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -30116,10 +30049,10 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -30127,10 +30060,10 @@
         <v>99</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -30138,10 +30071,10 @@
         <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="C23" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -30149,10 +30082,10 @@
         <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="C24" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -30160,10 +30093,10 @@
         <v>90</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
     </row>
   </sheetData>
@@ -30185,9 +30118,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A50AE00-35E3-4190-9D0A-D5919F3CC76D}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30202,7 +30135,7 @@
         <v>162</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3900</v>
+        <v>161</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>160</v>
@@ -30216,7 +30149,7 @@
         <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -30293,7 +30226,7 @@
         <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -30301,10 +30234,10 @@
         <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C10" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -30312,10 +30245,10 @@
         <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="C11" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -30323,10 +30256,10 @@
         <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="C12" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -30334,10 +30267,10 @@
         <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="C13" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -30345,10 +30278,10 @@
         <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="C14" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -30356,10 +30289,10 @@
         <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="C15" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -30367,10 +30300,10 @@
         <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="C16" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -30378,10 +30311,10 @@
         <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="C17" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -30389,10 +30322,10 @@
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="C18" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -30400,10 +30333,10 @@
         <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="C19" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -30411,10 +30344,10 @@
         <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="C20" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -30422,10 +30355,10 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="C21" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -30433,10 +30366,10 @@
         <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="C22" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -30444,10 +30377,10 @@
         <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="C23" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -30455,10 +30388,10 @@
         <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="C24" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -30466,10 +30399,10 @@
         <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="C25" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -30477,10 +30410,10 @@
         <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="C26" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -30488,10 +30421,10 @@
         <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="C27" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -30499,10 +30432,10 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="C28" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -30510,10 +30443,10 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="C29" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -30521,10 +30454,10 @@
         <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="C30" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -30532,10 +30465,10 @@
         <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="C31" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -30543,10 +30476,10 @@
         <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="C32" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -30554,10 +30487,10 @@
         <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="C33" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -30565,10 +30498,10 @@
         <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="C34" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -30576,10 +30509,10 @@
         <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="C35" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -30587,10 +30520,10 @@
         <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="C36" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -30598,10 +30531,10 @@
         <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="C37" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -30609,10 +30542,10 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="C38" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -30620,10 +30553,10 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="C39" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -30631,10 +30564,10 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="C40" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -30642,10 +30575,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="C41" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -30653,10 +30586,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="C42" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -30664,10 +30597,10 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="C43" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -30675,10 +30608,10 @@
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="C44" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -30686,10 +30619,10 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="C45" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -30697,10 +30630,10 @@
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="C46" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -30708,10 +30641,10 @@
         <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="C47" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -30719,10 +30652,10 @@
         <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="C48" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -30730,10 +30663,10 @@
         <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="C49" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -30741,10 +30674,10 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="C50" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -30752,10 +30685,10 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="C51" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -30763,10 +30696,10 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="C52" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -30774,10 +30707,10 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="C53" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -30785,10 +30718,10 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="C54" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -30796,10 +30729,10 @@
         <v>502</v>
       </c>
       <c r="B55" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="C55" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -30807,10 +30740,10 @@
         <v>500</v>
       </c>
       <c r="B56" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="C56" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -30818,10 +30751,10 @@
         <v>498</v>
       </c>
       <c r="B57" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="C57" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -30829,10 +30762,10 @@
         <v>496</v>
       </c>
       <c r="B58" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="C58" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -30840,10 +30773,10 @@
         <v>494</v>
       </c>
       <c r="B59" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="C59" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -30851,10 +30784,10 @@
         <v>492</v>
       </c>
       <c r="B60" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="C60" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -30862,10 +30795,10 @@
         <v>490</v>
       </c>
       <c r="B61" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="C61" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -30873,10 +30806,10 @@
         <v>488</v>
       </c>
       <c r="B62" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="C62" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -30884,10 +30817,10 @@
         <v>486</v>
       </c>
       <c r="B63" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="C63" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -30895,10 +30828,10 @@
         <v>484</v>
       </c>
       <c r="B64" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="C64" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -30906,10 +30839,10 @@
         <v>482</v>
       </c>
       <c r="B65" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="C65" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -30917,10 +30850,10 @@
         <v>480</v>
       </c>
       <c r="B66" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="C66" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -30928,10 +30861,10 @@
         <v>478</v>
       </c>
       <c r="B67" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="C67" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -30939,10 +30872,10 @@
         <v>476</v>
       </c>
       <c r="B68" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="C68" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -30950,10 +30883,10 @@
         <v>474</v>
       </c>
       <c r="B69" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="C69" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -30961,10 +30894,10 @@
         <v>472</v>
       </c>
       <c r="B70" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="C70" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -30972,10 +30905,10 @@
         <v>470</v>
       </c>
       <c r="B71" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="C71" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -30983,10 +30916,10 @@
         <v>468</v>
       </c>
       <c r="B72" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="C72" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -30994,10 +30927,10 @@
         <v>466</v>
       </c>
       <c r="B73" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="C73" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -31005,10 +30938,10 @@
         <v>464</v>
       </c>
       <c r="B74" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="C74" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -31016,10 +30949,10 @@
         <v>462</v>
       </c>
       <c r="B75" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="C75" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -31027,10 +30960,10 @@
         <v>460</v>
       </c>
       <c r="B76" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="C76" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -31038,10 +30971,10 @@
         <v>458</v>
       </c>
       <c r="B77" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="C77" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -31049,10 +30982,10 @@
         <v>456</v>
       </c>
       <c r="B78" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="C78" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -31060,10 +30993,10 @@
         <v>454</v>
       </c>
       <c r="B79" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="C79" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -31071,10 +31004,10 @@
         <v>452</v>
       </c>
       <c r="B80" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="C80" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -31082,10 +31015,10 @@
         <v>450</v>
       </c>
       <c r="B81" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="C81" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -31093,10 +31026,10 @@
         <v>448</v>
       </c>
       <c r="B82" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="C82" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -31104,10 +31037,10 @@
         <v>446</v>
       </c>
       <c r="B83" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="C83" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -31115,10 +31048,10 @@
         <v>444</v>
       </c>
       <c r="B84" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="C84" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -31126,10 +31059,10 @@
         <v>442</v>
       </c>
       <c r="B85" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="C85" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -31137,10 +31070,10 @@
         <v>440</v>
       </c>
       <c r="B86" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="C86" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -31148,10 +31081,10 @@
         <v>438</v>
       </c>
       <c r="B87" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="C87" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -31159,10 +31092,10 @@
         <v>436</v>
       </c>
       <c r="B88" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="C88" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -31170,10 +31103,10 @@
         <v>434</v>
       </c>
       <c r="B89" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="C89" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -31181,10 +31114,10 @@
         <v>432</v>
       </c>
       <c r="B90" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="C90" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -31192,10 +31125,10 @@
         <v>430</v>
       </c>
       <c r="B91" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="C91" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -31203,10 +31136,10 @@
         <v>428</v>
       </c>
       <c r="B92" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="C92" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -31214,10 +31147,10 @@
         <v>426</v>
       </c>
       <c r="B93" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="C93" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -31225,10 +31158,10 @@
         <v>424</v>
       </c>
       <c r="B94" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="C94" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -31236,10 +31169,10 @@
         <v>422</v>
       </c>
       <c r="B95" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="C95" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -31247,10 +31180,10 @@
         <v>420</v>
       </c>
       <c r="B96" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="C96" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -31258,10 +31191,10 @@
         <v>417</v>
       </c>
       <c r="B97" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="C97" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -31269,10 +31202,10 @@
         <v>414</v>
       </c>
       <c r="B98" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="C98" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -31280,10 +31213,10 @@
         <v>411</v>
       </c>
       <c r="B99" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="C99" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -31291,10 +31224,10 @@
         <v>408</v>
       </c>
       <c r="B100" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="C100" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -31302,10 +31235,10 @@
         <v>405</v>
       </c>
       <c r="B101" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="C101" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -31313,10 +31246,10 @@
         <v>402</v>
       </c>
       <c r="B102" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="C102" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -31324,10 +31257,10 @@
         <v>399</v>
       </c>
       <c r="B103" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="C103" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -31335,10 +31268,10 @@
         <v>396</v>
       </c>
       <c r="B104" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="C104" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -31346,10 +31279,10 @@
         <v>393</v>
       </c>
       <c r="B105" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="C105" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -31357,10 +31290,10 @@
         <v>390</v>
       </c>
       <c r="B106" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="C106" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -31368,10 +31301,10 @@
         <v>387</v>
       </c>
       <c r="B107" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="C107" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -31379,10 +31312,10 @@
         <v>384</v>
       </c>
       <c r="B108" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="C108" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -31390,10 +31323,10 @@
         <v>381</v>
       </c>
       <c r="B109" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="C109" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -31401,10 +31334,10 @@
         <v>378</v>
       </c>
       <c r="B110" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="C110" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -31412,10 +31345,10 @@
         <v>375</v>
       </c>
       <c r="B111" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="C111" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -31423,10 +31356,10 @@
         <v>372</v>
       </c>
       <c r="B112" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="C112" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -31434,10 +31367,10 @@
         <v>369</v>
       </c>
       <c r="B113" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="C113" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -31445,10 +31378,10 @@
         <v>366</v>
       </c>
       <c r="B114" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="C114" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -31456,10 +31389,10 @@
         <v>363</v>
       </c>
       <c r="B115" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="C115" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -31467,10 +31400,10 @@
         <v>360</v>
       </c>
       <c r="B116" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="C116" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -31478,10 +31411,10 @@
         <v>357</v>
       </c>
       <c r="B117" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="C117" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -31489,10 +31422,10 @@
         <v>354</v>
       </c>
       <c r="B118" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="C118" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -31500,10 +31433,10 @@
         <v>351</v>
       </c>
       <c r="B119" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C119" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -31511,10 +31444,10 @@
         <v>348</v>
       </c>
       <c r="B120" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="C120" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -31522,10 +31455,10 @@
         <v>345</v>
       </c>
       <c r="B121" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="C121" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -31533,10 +31466,10 @@
         <v>342</v>
       </c>
       <c r="B122" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="C122" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -31544,10 +31477,10 @@
         <v>339</v>
       </c>
       <c r="B123" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="C123" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -31555,10 +31488,10 @@
         <v>336</v>
       </c>
       <c r="B124" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="C124" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -31566,10 +31499,10 @@
         <v>333</v>
       </c>
       <c r="B125" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="C125" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -31577,10 +31510,10 @@
         <v>330</v>
       </c>
       <c r="B126" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="C126" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -31588,10 +31521,10 @@
         <v>327</v>
       </c>
       <c r="B127" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="C127" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -31599,10 +31532,10 @@
         <v>324</v>
       </c>
       <c r="B128" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="C128" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -31610,10 +31543,10 @@
         <v>321</v>
       </c>
       <c r="B129" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="C129" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -31621,10 +31554,10 @@
         <v>318</v>
       </c>
       <c r="B130" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="C130" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -31632,10 +31565,10 @@
         <v>315</v>
       </c>
       <c r="B131" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C131" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -31643,10 +31576,10 @@
         <v>312</v>
       </c>
       <c r="B132" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="C132" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -31654,10 +31587,10 @@
         <v>309</v>
       </c>
       <c r="B133" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="C133" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -31665,10 +31598,10 @@
         <v>306</v>
       </c>
       <c r="B134" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="C134" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -31676,10 +31609,10 @@
         <v>303</v>
       </c>
       <c r="B135" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="C135" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -31687,10 +31620,10 @@
         <v>573</v>
       </c>
       <c r="B136" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="C136" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -31698,10 +31631,10 @@
         <v>570</v>
       </c>
       <c r="B137" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="C137" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -31709,10 +31642,10 @@
         <v>1422</v>
       </c>
       <c r="B138" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="C138" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -31720,10 +31653,10 @@
         <v>1419</v>
       </c>
       <c r="B139" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="C139" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -31731,10 +31664,10 @@
         <v>1416</v>
       </c>
       <c r="B140" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="C140" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -31742,10 +31675,10 @@
         <v>1413</v>
       </c>
       <c r="B141" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="C141" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -31753,10 +31686,10 @@
         <v>1410</v>
       </c>
       <c r="B142" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="C142" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -31764,10 +31697,10 @@
         <v>1407</v>
       </c>
       <c r="B143" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="C143" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -31775,10 +31708,10 @@
         <v>1777</v>
       </c>
       <c r="B144" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="C144" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -31786,10 +31719,10 @@
         <v>1774</v>
       </c>
       <c r="B145" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="C145" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -31797,10 +31730,10 @@
         <v>1771</v>
       </c>
       <c r="B146" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="C146" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -31808,10 +31741,10 @@
         <v>3056</v>
       </c>
       <c r="B147" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="C147" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -31819,10 +31752,10 @@
         <v>3053</v>
       </c>
       <c r="B148" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="C148" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -31830,10 +31763,10 @@
         <v>3050</v>
       </c>
       <c r="B149" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="C149" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -31841,10 +31774,10 @@
         <v>3047</v>
       </c>
       <c r="B150" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="C150" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -31852,10 +31785,10 @@
         <v>3044</v>
       </c>
       <c r="B151" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="C151" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -31863,10 +31796,10 @@
         <v>3041</v>
       </c>
       <c r="B152" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="C152" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -31874,10 +31807,10 @@
         <v>3038</v>
       </c>
       <c r="B153" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="C153" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -31885,10 +31818,10 @@
         <v>3035</v>
       </c>
       <c r="B154" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="C154" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -31896,10 +31829,10 @@
         <v>3032</v>
       </c>
       <c r="B155" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="C155" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -31907,10 +31840,10 @@
         <v>3029</v>
       </c>
       <c r="B156" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="C156" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -31918,10 +31851,10 @@
         <v>3026</v>
       </c>
       <c r="B157" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="C157" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -31929,10 +31862,10 @@
         <v>3023</v>
       </c>
       <c r="B158" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="C158" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -31940,10 +31873,10 @@
         <v>3020</v>
       </c>
       <c r="B159" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="C159" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -31951,10 +31884,10 @@
         <v>3017</v>
       </c>
       <c r="B160" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="C160" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -31962,10 +31895,10 @@
         <v>3014</v>
       </c>
       <c r="B161" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="C161" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -31973,10 +31906,10 @@
         <v>3011</v>
       </c>
       <c r="B162" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="C162" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -31984,10 +31917,10 @@
         <v>3008</v>
       </c>
       <c r="B163" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="C163" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -31995,10 +31928,10 @@
         <v>3005</v>
       </c>
       <c r="B164" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="C164" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -32006,10 +31939,10 @@
         <v>3002</v>
       </c>
       <c r="B165" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="C165" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -32017,10 +31950,10 @@
         <v>2999</v>
       </c>
       <c r="B166" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="C166" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -32028,10 +31961,10 @@
         <v>2996</v>
       </c>
       <c r="B167" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="C167" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -32039,10 +31972,10 @@
         <v>2993</v>
       </c>
       <c r="B168" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="C168" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -32050,10 +31983,10 @@
         <v>2990</v>
       </c>
       <c r="B169" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="C169" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -32061,10 +31994,10 @@
         <v>2987</v>
       </c>
       <c r="B170" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="C170" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -32072,10 +32005,10 @@
         <v>2984</v>
       </c>
       <c r="B171" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="C171" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -32083,10 +32016,10 @@
         <v>2981</v>
       </c>
       <c r="B172" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="C172" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -32094,10 +32027,10 @@
         <v>2978</v>
       </c>
       <c r="B173" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="C173" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -32105,10 +32038,10 @@
         <v>2975</v>
       </c>
       <c r="B174" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="C174" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -32116,10 +32049,10 @@
         <v>2972</v>
       </c>
       <c r="B175" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="C175" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -32127,10 +32060,10 @@
         <v>2969</v>
       </c>
       <c r="B176" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="C176" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -32138,10 +32071,10 @@
         <v>2966</v>
       </c>
       <c r="B177" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="C177" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -32149,10 +32082,10 @@
         <v>2963</v>
       </c>
       <c r="B178" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="C178" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -32160,10 +32093,10 @@
         <v>2960</v>
       </c>
       <c r="B179" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="C179" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -32171,10 +32104,10 @@
         <v>2957</v>
       </c>
       <c r="B180" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="C180" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -32182,10 +32115,10 @@
         <v>2954</v>
       </c>
       <c r="B181" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="C181" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -32193,10 +32126,10 @@
         <v>2951</v>
       </c>
       <c r="B182" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="C182" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -32204,10 +32137,10 @@
         <v>2948</v>
       </c>
       <c r="B183" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="C183" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -32215,10 +32148,10 @@
         <v>2945</v>
       </c>
       <c r="B184" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="C184" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -32226,10 +32159,10 @@
         <v>2942</v>
       </c>
       <c r="B185" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="C185" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -32237,10 +32170,10 @@
         <v>2939</v>
       </c>
       <c r="B186" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="C186" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -32248,10 +32181,10 @@
         <v>2936</v>
       </c>
       <c r="B187" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="C187" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -32259,10 +32192,10 @@
         <v>2933</v>
       </c>
       <c r="B188" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="C188" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -32270,10 +32203,10 @@
         <v>2930</v>
       </c>
       <c r="B189" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="C189" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -32281,10 +32214,10 @@
         <v>2927</v>
       </c>
       <c r="B190" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="C190" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
     </row>
   </sheetData>
@@ -32413,10 +32346,10 @@
         <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
       <c r="C10" t="s">
-        <v>3971</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -32424,10 +32357,10 @@
         <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
       <c r="C11" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -32435,10 +32368,10 @@
         <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
       <c r="C12" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -32446,10 +32379,10 @@
         <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
       <c r="C13" t="s">
-        <v>3965</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -32457,10 +32390,10 @@
         <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
       <c r="C14" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -32468,10 +32401,10 @@
         <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="C15" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -32479,10 +32412,10 @@
         <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="C16" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -32490,10 +32423,10 @@
         <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="C17" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -32501,10 +32434,10 @@
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="C18" t="s">
-        <v>3955</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -32512,10 +32445,10 @@
         <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="C19" t="s">
-        <v>3953</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -32523,10 +32456,10 @@
         <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
       <c r="C20" t="s">
-        <v>3951</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -32534,10 +32467,10 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
       <c r="C21" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -32545,10 +32478,10 @@
         <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="C22" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -32556,10 +32489,10 @@
         <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>3946</v>
+        <v>3944</v>
       </c>
       <c r="C23" t="s">
-        <v>3945</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -32567,10 +32500,10 @@
         <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="C24" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -32578,10 +32511,10 @@
         <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>3943</v>
+        <v>3941</v>
       </c>
       <c r="C25" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -32589,10 +32522,10 @@
         <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
       <c r="C26" t="s">
-        <v>3941</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -32600,10 +32533,10 @@
         <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
       <c r="C27" t="s">
-        <v>3939</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -32611,10 +32544,10 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="C28" t="s">
-        <v>3937</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -32622,10 +32555,10 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
       <c r="C29" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -32633,10 +32566,10 @@
         <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
       <c r="C30" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -32644,10 +32577,10 @@
         <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
       <c r="C31" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -32655,10 +32588,10 @@
         <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
       <c r="C32" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -32666,10 +32599,10 @@
         <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="C33" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -32677,10 +32610,10 @@
         <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
       <c r="C34" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -32688,10 +32621,10 @@
         <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
       <c r="C35" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -32699,10 +32632,10 @@
         <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
       <c r="C36" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -32710,10 +32643,10 @@
         <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
       <c r="C37" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -32721,10 +32654,10 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
       <c r="C38" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -32732,10 +32665,10 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
       <c r="C39" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -32743,10 +32676,10 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="C40" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -32754,10 +32687,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="C41" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -32765,10 +32698,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
       <c r="C42" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -32776,10 +32709,10 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="C43" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -32787,10 +32720,10 @@
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
       <c r="C44" t="s">
-        <v>3907</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -32798,10 +32731,10 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
       <c r="C45" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -32809,10 +32742,10 @@
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>3904</v>
+        <v>3902</v>
       </c>
       <c r="C46" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -32820,10 +32753,10 @@
         <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="C47" t="s">
-        <v>3901</v>
+        <v>3899</v>
       </c>
     </row>
   </sheetData>
@@ -33348,7 +33281,7 @@
         <v>567</v>
       </c>
       <c r="C10" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -33359,7 +33292,7 @@
         <v>566</v>
       </c>
       <c r="C11" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -33370,7 +33303,7 @@
         <v>565</v>
       </c>
       <c r="C12" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -33601,7 +33534,7 @@
         <v>524</v>
       </c>
       <c r="C33" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -33612,7 +33545,7 @@
         <v>523</v>
       </c>
       <c r="C34" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -33623,7 +33556,7 @@
         <v>522</v>
       </c>
       <c r="C35" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -33634,7 +33567,7 @@
         <v>521</v>
       </c>
       <c r="C36" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -33645,7 +33578,7 @@
         <v>520</v>
       </c>
       <c r="C37" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -33656,7 +33589,7 @@
         <v>519</v>
       </c>
       <c r="C38" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -33667,7 +33600,7 @@
         <v>518</v>
       </c>
       <c r="C39" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -33678,7 +33611,7 @@
         <v>517</v>
       </c>
       <c r="C40" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -33689,7 +33622,7 @@
         <v>516</v>
       </c>
       <c r="C41" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -33700,7 +33633,7 @@
         <v>515</v>
       </c>
       <c r="C42" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -33711,7 +33644,7 @@
         <v>514</v>
       </c>
       <c r="C43" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -33722,7 +33655,7 @@
         <v>513</v>
       </c>
       <c r="C44" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -33733,7 +33666,7 @@
         <v>512</v>
       </c>
       <c r="C45" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -33744,7 +33677,7 @@
         <v>511</v>
       </c>
       <c r="C46" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -33755,7 +33688,7 @@
         <v>510</v>
       </c>
       <c r="C47" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -33766,7 +33699,7 @@
         <v>509</v>
       </c>
       <c r="C48" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -33777,7 +33710,7 @@
         <v>508</v>
       </c>
       <c r="C49" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -33788,7 +33721,7 @@
         <v>507</v>
       </c>
       <c r="C50" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -33799,7 +33732,7 @@
         <v>506</v>
       </c>
       <c r="C51" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -33810,7 +33743,7 @@
         <v>505</v>
       </c>
       <c r="C52" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -33821,7 +33754,7 @@
         <v>504</v>
       </c>
       <c r="C53" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -33832,7 +33765,7 @@
         <v>503</v>
       </c>
       <c r="C54" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -33843,7 +33776,7 @@
         <v>501</v>
       </c>
       <c r="C55" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -33854,7 +33787,7 @@
         <v>499</v>
       </c>
       <c r="C56" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -33865,7 +33798,7 @@
         <v>497</v>
       </c>
       <c r="C57" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -33876,7 +33809,7 @@
         <v>495</v>
       </c>
       <c r="C58" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -33887,7 +33820,7 @@
         <v>493</v>
       </c>
       <c r="C59" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -33898,7 +33831,7 @@
         <v>491</v>
       </c>
       <c r="C60" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -33909,7 +33842,7 @@
         <v>489</v>
       </c>
       <c r="C61" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -33920,7 +33853,7 @@
         <v>487</v>
       </c>
       <c r="C62" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -33931,7 +33864,7 @@
         <v>485</v>
       </c>
       <c r="C63" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -33942,7 +33875,7 @@
         <v>483</v>
       </c>
       <c r="C64" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -33953,7 +33886,7 @@
         <v>481</v>
       </c>
       <c r="C65" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -33964,7 +33897,7 @@
         <v>479</v>
       </c>
       <c r="C66" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -33975,7 +33908,7 @@
         <v>477</v>
       </c>
       <c r="C67" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -33986,7 +33919,7 @@
         <v>475</v>
       </c>
       <c r="C68" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -33997,7 +33930,7 @@
         <v>473</v>
       </c>
       <c r="C69" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -34008,7 +33941,7 @@
         <v>471</v>
       </c>
       <c r="C70" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -34019,7 +33952,7 @@
         <v>469</v>
       </c>
       <c r="C71" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -34030,7 +33963,7 @@
         <v>467</v>
       </c>
       <c r="C72" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -34041,7 +33974,7 @@
         <v>465</v>
       </c>
       <c r="C73" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -34052,7 +33985,7 @@
         <v>463</v>
       </c>
       <c r="C74" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -34063,7 +33996,7 @@
         <v>461</v>
       </c>
       <c r="C75" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -34074,7 +34007,7 @@
         <v>459</v>
       </c>
       <c r="C76" t="s">
-        <v>3992</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -34085,7 +34018,7 @@
         <v>457</v>
       </c>
       <c r="C77" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -34096,7 +34029,7 @@
         <v>455</v>
       </c>
       <c r="C78" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -34107,7 +34040,7 @@
         <v>453</v>
       </c>
       <c r="C79" t="s">
-        <v>3989</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -34118,7 +34051,7 @@
         <v>451</v>
       </c>
       <c r="C80" t="s">
-        <v>3988</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -34129,7 +34062,7 @@
         <v>449</v>
       </c>
       <c r="C81" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -34140,7 +34073,7 @@
         <v>447</v>
       </c>
       <c r="C82" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -34151,7 +34084,7 @@
         <v>445</v>
       </c>
       <c r="C83" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -34162,7 +34095,7 @@
         <v>443</v>
       </c>
       <c r="C84" t="s">
-        <v>3984</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -34173,7 +34106,7 @@
         <v>441</v>
       </c>
       <c r="C85" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -34184,7 +34117,7 @@
         <v>439</v>
       </c>
       <c r="C86" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -34195,7 +34128,7 @@
         <v>437</v>
       </c>
       <c r="C87" t="s">
-        <v>3981</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -34206,7 +34139,7 @@
         <v>435</v>
       </c>
       <c r="C88" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -34217,7 +34150,7 @@
         <v>433</v>
       </c>
       <c r="C89" t="s">
-        <v>3979</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -34228,7 +34161,7 @@
         <v>431</v>
       </c>
       <c r="C90" t="s">
-        <v>3978</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -34239,7 +34172,7 @@
         <v>429</v>
       </c>
       <c r="C91" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -34250,7 +34183,7 @@
         <v>427</v>
       </c>
       <c r="C92" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -34261,7 +34194,7 @@
         <v>425</v>
       </c>
       <c r="C93" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -34272,7 +34205,7 @@
         <v>423</v>
       </c>
       <c r="C94" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -34283,7 +34216,7 @@
         <v>421</v>
       </c>
       <c r="C95" t="s">
-        <v>3973</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
